--- a/assets/tests/testsHelper.xlsx
+++ b/assets/tests/testsHelper.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02FD9483-987F-494E-8C08-199B51948147}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2FDC7D5-5051-44BF-A2DD-10790C4A533D}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="37">
   <si>
     <t>price</t>
   </si>
@@ -153,7 +153,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -190,6 +190,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="6">
     <border>
@@ -268,7 +274,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -340,6 +346,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -625,7 +634,7 @@
   <dimension ref="A1:J32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32:E32"/>
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -644,7 +653,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="17">
-        <v>47943.5</v>
+        <v>47230.6</v>
       </c>
       <c r="C1" s="17"/>
       <c r="F1" s="2" t="s">
@@ -665,7 +674,7 @@
         <v>3</v>
       </c>
       <c r="B2" s="18">
-        <v>100</v>
+        <v>105.678073</v>
       </c>
       <c r="C2" s="19"/>
       <c r="F2" s="2" t="s">
@@ -706,7 +715,7 @@
       </c>
       <c r="B4" s="14">
         <f>B2*G1</f>
-        <v>5</v>
+        <v>5.2839036500000001</v>
       </c>
       <c r="C4" s="13"/>
       <c r="F4" s="4" t="s">
@@ -722,7 +731,7 @@
       </c>
       <c r="B5" s="14">
         <f>_xlfn.FLOOR.MATH(B4, J3)</f>
-        <v>5</v>
+        <v>5.2839036500000001</v>
       </c>
       <c r="C5" s="13"/>
       <c r="F5" s="5" t="s">
@@ -738,7 +747,7 @@
       </c>
       <c r="B6" s="14">
         <f>B5*G2</f>
-        <v>250</v>
+        <v>264.19518249999999</v>
       </c>
       <c r="C6" s="13"/>
       <c r="F6" s="5" t="s">
@@ -754,7 +763,7 @@
       </c>
       <c r="B7" s="14">
         <f>B6/B1</f>
-        <v>5.2144712004755598E-3</v>
+        <v>5.5937291184105222E-3</v>
       </c>
       <c r="C7" s="13"/>
     </row>
@@ -774,7 +783,7 @@
       </c>
       <c r="B9" s="14">
         <f>B8*B1</f>
-        <v>239.7175</v>
+        <v>236.15299999999999</v>
       </c>
       <c r="C9" s="13"/>
     </row>
@@ -784,7 +793,7 @@
       </c>
       <c r="B10" s="15">
         <f>MROUND(B9,J3)</f>
-        <v>239.7175</v>
+        <v>236.15299999999999</v>
       </c>
       <c r="C10" s="16"/>
     </row>
@@ -794,7 +803,7 @@
       </c>
       <c r="B11" s="14">
         <f>B10/G2</f>
-        <v>4.7943499999999997</v>
+        <v>4.7230600000000003</v>
       </c>
       <c r="C11" s="13"/>
     </row>
@@ -804,7 +813,7 @@
       </c>
       <c r="B12" s="15">
         <f>MROUND(B11,J3)</f>
-        <v>4.7943499999999997</v>
+        <v>4.7230600000000003</v>
       </c>
       <c r="C12" s="16"/>
     </row>
@@ -823,7 +832,7 @@
       </c>
       <c r="B14" s="9"/>
       <c r="C14" s="9">
-        <v>48707.5</v>
+        <v>47983.199999999997</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
@@ -836,7 +845,7 @@
       </c>
       <c r="C15" s="5">
         <f>C14*(1-G3)</f>
-        <v>48683.146250000005</v>
+        <v>47959.208400000003</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
@@ -849,7 +858,7 @@
       </c>
       <c r="C16" s="7">
         <f>MROUND(C15,J2)</f>
-        <v>48683.100000000006</v>
+        <v>47959.200000000004</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -858,11 +867,11 @@
       </c>
       <c r="B17" s="5">
         <f>B1*(1+G4)</f>
-        <v>48063.358749999999</v>
+        <v>47348.676499999994</v>
       </c>
       <c r="C17" s="5">
         <f>B1*(1-G4)</f>
-        <v>47823.641250000001</v>
+        <v>47112.523500000003</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -871,11 +880,11 @@
       </c>
       <c r="B18" s="7">
         <f>MROUND(B17,J2)</f>
-        <v>48063.4</v>
+        <v>47348.700000000004</v>
       </c>
       <c r="C18" s="7">
         <f>MROUND(C17,J2)</f>
-        <v>47823.600000000006</v>
+        <v>47112.5</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -889,7 +898,7 @@
       </c>
       <c r="B20" s="14">
         <f>MROUND(B10*G5,J3)</f>
-        <v>9.5887E-2</v>
+        <v>9.4461199999999995E-2</v>
       </c>
       <c r="C20" s="13"/>
     </row>
@@ -899,7 +908,7 @@
       </c>
       <c r="B21" s="15">
         <f>B2-B12-B20</f>
-        <v>95.109763000000001</v>
+        <v>100.8605518</v>
       </c>
       <c r="C21" s="16"/>
     </row>
@@ -920,22 +929,22 @@
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="5" t="s">
+      <c r="A24" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B24" s="5"/>
-      <c r="C24" s="5">
-        <v>46307</v>
+      <c r="B24" s="25"/>
+      <c r="C24" s="25">
+        <v>46306.98</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="5" t="s">
+      <c r="A25" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="B25" s="5"/>
-      <c r="C25" s="5">
+      <c r="B25" s="25"/>
+      <c r="C25" s="25">
         <f>C24*(1+G6)</f>
-        <v>46770.07</v>
+        <v>46770.049800000001</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
@@ -945,7 +954,7 @@
       <c r="B26" s="7"/>
       <c r="C26" s="7">
         <f>MROUND(C25,J2)</f>
-        <v>46770.100000000006</v>
+        <v>46770</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
@@ -978,11 +987,11 @@
       <c r="C29" s="5"/>
       <c r="D29" s="5">
         <f>MROUND(B8*C16,J3)</f>
-        <v>243.41550000000001</v>
+        <v>239.79599999999999</v>
       </c>
       <c r="E29" s="5">
         <f>MROUND(B8*C26,J3)</f>
-        <v>233.85050000000001</v>
+        <v>233.85</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
@@ -993,11 +1002,11 @@
       <c r="C30" s="5"/>
       <c r="D30" s="5">
         <f>MROUND(D29*G5,J3)</f>
-        <v>9.73662E-2</v>
+        <v>9.5918400000000001E-2</v>
       </c>
       <c r="E30" s="5">
         <f>MROUND(E29*G5,J3)</f>
-        <v>9.3540200000000004E-2</v>
+        <v>9.3539999999999998E-2</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
@@ -1008,11 +1017,11 @@
       <c r="C31" s="5"/>
       <c r="D31" s="5">
         <f>B10-D29-D30</f>
-        <v>-3.7953662000000077</v>
+        <v>-3.7389184000000006</v>
       </c>
       <c r="E31" s="5">
         <f>B10-E29-E30</f>
-        <v>5.7734597999999906</v>
+        <v>2.2094599999999973</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
@@ -1023,11 +1032,11 @@
       <c r="C32" s="7"/>
       <c r="D32" s="7">
         <f>B21+B12+D31</f>
-        <v>96.108746799999992</v>
+        <v>101.8446934</v>
       </c>
       <c r="E32" s="7">
         <f>B21+B12+E31</f>
-        <v>105.67757279999998</v>
+        <v>107.79307179999999</v>
       </c>
     </row>
   </sheetData>

--- a/assets/tests/testsHelper.xlsx
+++ b/assets/tests/testsHelper.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2FDC7D5-5051-44BF-A2DD-10790C4A533D}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFB31D4E-86F3-4249-B4C7-979E542B2BEC}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -309,46 +309,46 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -634,7 +634,7 @@
   <dimension ref="A1:J32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -652,10 +652,10 @@
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17">
-        <v>47230.6</v>
-      </c>
-      <c r="C1" s="17"/>
+      <c r="B1" s="23">
+        <v>46939.9</v>
+      </c>
+      <c r="C1" s="23"/>
       <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
@@ -673,10 +673,10 @@
       <c r="A2" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="18">
-        <v>105.678073</v>
-      </c>
-      <c r="C2" s="19"/>
+      <c r="B2" s="15">
+        <v>106.6714886</v>
+      </c>
+      <c r="C2" s="16"/>
       <c r="F2" s="2" t="s">
         <v>5</v>
       </c>
@@ -691,11 +691,11 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="20" t="s">
+      <c r="A3" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="B3" s="20"/>
-      <c r="C3" s="21"/>
+      <c r="B3" s="24"/>
+      <c r="C3" s="25"/>
       <c r="F3" s="4" t="s">
         <v>6</v>
       </c>
@@ -713,11 +713,11 @@
       <c r="A4" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="14">
+      <c r="B4" s="18">
         <f>B2*G1</f>
-        <v>5.2839036500000001</v>
-      </c>
-      <c r="C4" s="13"/>
+        <v>5.3335744300000005</v>
+      </c>
+      <c r="C4" s="19"/>
       <c r="F4" s="4" t="s">
         <v>7</v>
       </c>
@@ -729,11 +729,11 @@
       <c r="A5" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="14">
+      <c r="B5" s="18">
         <f>_xlfn.FLOOR.MATH(B4, J3)</f>
-        <v>5.2839036500000001</v>
-      </c>
-      <c r="C5" s="13"/>
+        <v>5.3335744300000005</v>
+      </c>
+      <c r="C5" s="19"/>
       <c r="F5" s="5" t="s">
         <v>27</v>
       </c>
@@ -745,11 +745,11 @@
       <c r="A6" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="14">
+      <c r="B6" s="18">
         <f>B5*G2</f>
-        <v>264.19518249999999</v>
-      </c>
-      <c r="C6" s="13"/>
+        <v>266.67872150000005</v>
+      </c>
+      <c r="C6" s="19"/>
       <c r="F6" s="5" t="s">
         <v>31</v>
       </c>
@@ -761,61 +761,61 @@
       <c r="A7" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="14">
+      <c r="B7" s="18">
         <f>B6/B1</f>
-        <v>5.5937291184105222E-3</v>
-      </c>
-      <c r="C7" s="13"/>
+        <v>5.6812801369410682E-3</v>
+      </c>
+      <c r="C7" s="19"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="15">
+      <c r="B8" s="20">
         <f>_xlfn.FLOOR.MATH(B7,J1)</f>
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="C8" s="16"/>
+      <c r="C8" s="21"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="14">
+      <c r="B9" s="18">
         <f>B8*B1</f>
-        <v>236.15299999999999</v>
-      </c>
-      <c r="C9" s="13"/>
+        <v>234.6995</v>
+      </c>
+      <c r="C9" s="19"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="15">
+      <c r="B10" s="20">
         <f>MROUND(B9,J3)</f>
-        <v>236.15299999999999</v>
-      </c>
-      <c r="C10" s="16"/>
+        <v>234.6995</v>
+      </c>
+      <c r="C10" s="21"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="14">
+      <c r="B11" s="18">
         <f>B10/G2</f>
-        <v>4.7230600000000003</v>
-      </c>
-      <c r="C11" s="13"/>
+        <v>4.6939900000000003</v>
+      </c>
+      <c r="C11" s="19"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="B12" s="15">
+      <c r="B12" s="20">
         <f>MROUND(B11,J3)</f>
-        <v>4.7230600000000003</v>
-      </c>
-      <c r="C12" s="16"/>
+        <v>4.6939900000000003</v>
+      </c>
+      <c r="C12" s="21"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="6"/>
@@ -830,9 +830,11 @@
       <c r="A14" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="B14" s="9"/>
-      <c r="C14" s="9">
-        <v>47983.199999999997</v>
+      <c r="B14" s="14">
+        <v>47744.7</v>
+      </c>
+      <c r="C14" s="14">
+        <v>47687.9</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
@@ -841,11 +843,11 @@
       </c>
       <c r="B15" s="5">
         <f>B14*(1+G3)</f>
-        <v>0</v>
+        <v>47768.572349999995</v>
       </c>
       <c r="C15" s="5">
         <f>C14*(1-G3)</f>
-        <v>47959.208400000003</v>
+        <v>47664.056050000007</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
@@ -854,11 +856,11 @@
       </c>
       <c r="B16" s="7">
         <f>MROUND(B15,J2)</f>
-        <v>0</v>
+        <v>47768.600000000006</v>
       </c>
       <c r="C16" s="7">
         <f>MROUND(C15,J2)</f>
-        <v>47959.200000000004</v>
+        <v>47664.100000000006</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -867,11 +869,11 @@
       </c>
       <c r="B17" s="5">
         <f>B1*(1+G4)</f>
-        <v>47348.676499999994</v>
+        <v>47057.249749999995</v>
       </c>
       <c r="C17" s="5">
         <f>B1*(1-G4)</f>
-        <v>47112.523500000003</v>
+        <v>46822.550250000008</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -880,102 +882,110 @@
       </c>
       <c r="B18" s="7">
         <f>MROUND(B17,J2)</f>
-        <v>47348.700000000004</v>
+        <v>47057.200000000004</v>
       </c>
       <c r="C18" s="7">
         <f>MROUND(C17,J2)</f>
-        <v>47112.5</v>
+        <v>46822.600000000006</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="14"/>
-      <c r="B19" s="12"/>
-      <c r="C19" s="13"/>
+      <c r="A19" s="18"/>
+      <c r="B19" s="22"/>
+      <c r="C19" s="19"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B20" s="14">
+      <c r="B20" s="18">
         <f>MROUND(B10*G5,J3)</f>
-        <v>9.4461199999999995E-2</v>
-      </c>
-      <c r="C20" s="13"/>
+        <v>9.3879799999999999E-2</v>
+      </c>
+      <c r="C20" s="19"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="B21" s="15">
+      <c r="B21" s="20">
         <f>B2-B12-B20</f>
-        <v>100.8605518</v>
-      </c>
-      <c r="C21" s="16"/>
+        <v>101.88361880000001</v>
+      </c>
+      <c r="C21" s="21"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="22" t="s">
+      <c r="A22" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="B22" s="22"/>
-      <c r="C22" s="22"/>
+      <c r="B22" s="17"/>
+      <c r="C22" s="17"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="5"/>
-      <c r="B23" s="23" t="s">
+      <c r="B23" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C23" s="24" t="s">
+      <c r="C23" s="13" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="25" t="s">
+      <c r="A24" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B24" s="25"/>
-      <c r="C24" s="25">
-        <v>46306.98</v>
+      <c r="B24" s="14">
+        <v>47575.199999999997</v>
+      </c>
+      <c r="C24" s="14">
+        <v>45900</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="25" t="s">
+      <c r="A25" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="B25" s="25"/>
-      <c r="C25" s="25">
+      <c r="B25" s="14">
+        <f>B24*(1-G6)</f>
+        <v>47099.447999999997</v>
+      </c>
+      <c r="C25" s="14">
         <f>C24*(1+G6)</f>
-        <v>46770.049800000001</v>
+        <v>46359</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="B26" s="7"/>
+      <c r="B26" s="7">
+        <f>MROUND(B25,J2)</f>
+        <v>47099.4</v>
+      </c>
       <c r="C26" s="7">
         <f>MROUND(C25,J2)</f>
-        <v>46770</v>
+        <v>46359</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="22" t="s">
+      <c r="A27" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="B27" s="22"/>
-      <c r="C27" s="22"/>
+      <c r="B27" s="17"/>
+      <c r="C27" s="17"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="5"/>
-      <c r="B28" s="23" t="s">
+      <c r="B28" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C28" s="23" t="s">
+      <c r="C28" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="D28" s="24" t="s">
+      <c r="D28" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="E28" s="24" t="s">
+      <c r="E28" s="13" t="s">
         <v>2</v>
       </c>
     </row>
@@ -983,72 +993,88 @@
       <c r="A29" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="B29" s="5"/>
-      <c r="C29" s="5"/>
+      <c r="B29" s="5">
+        <f>MROUND(B8*B16,J3)</f>
+        <v>238.84300000000002</v>
+      </c>
+      <c r="C29" s="5">
+        <f>MROUND(B8*C26,J3)</f>
+        <v>231.79500000000002</v>
+      </c>
       <c r="D29" s="5">
         <f>MROUND(B8*C16,J3)</f>
-        <v>239.79599999999999</v>
+        <v>238.32050000000001</v>
       </c>
       <c r="E29" s="5">
         <f>MROUND(B8*C26,J3)</f>
-        <v>233.85</v>
+        <v>231.79500000000002</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="B30" s="5"/>
-      <c r="C30" s="5"/>
+      <c r="B30" s="5">
+        <f>MROUND(B29*G5,J3)</f>
+        <v>9.5537200000000003E-2</v>
+      </c>
+      <c r="C30" s="5">
+        <f>MROUND(C29*G5,J3)</f>
+        <v>9.2718000000000009E-2</v>
+      </c>
       <c r="D30" s="5">
         <f>MROUND(D29*G5,J3)</f>
-        <v>9.5918400000000001E-2</v>
+        <v>9.5328200000000002E-2</v>
       </c>
       <c r="E30" s="5">
         <f>MROUND(E29*G5,J3)</f>
-        <v>9.3539999999999998E-2</v>
+        <v>9.2718000000000009E-2</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="B31" s="5"/>
-      <c r="C31" s="5"/>
+      <c r="B31" s="5">
+        <f>B29-B10-B30</f>
+        <v>4.0479628000000174</v>
+      </c>
+      <c r="C31" s="5">
+        <f>C29-B10-C30</f>
+        <v>-2.9972179999999846</v>
+      </c>
       <c r="D31" s="5">
         <f>B10-D29-D30</f>
-        <v>-3.7389184000000006</v>
+        <v>-3.7163282000000093</v>
       </c>
       <c r="E31" s="5">
         <f>B10-E29-E30</f>
-        <v>2.2094599999999973</v>
+        <v>2.8117819999999845</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B32" s="7"/>
-      <c r="C32" s="7"/>
+      <c r="B32" s="7">
+        <f>B12+B21+B31</f>
+        <v>110.62557160000003</v>
+      </c>
+      <c r="C32" s="7">
+        <f>B12+B21+C31</f>
+        <v>103.58039080000002</v>
+      </c>
       <c r="D32" s="7">
         <f>B21+B12+D31</f>
-        <v>101.8446934</v>
+        <v>102.8612806</v>
       </c>
       <c r="E32" s="7">
         <f>B21+B12+E31</f>
-        <v>107.79307179999999</v>
+        <v>109.38939079999999</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="A27:C27"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="A19:C19"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B4:C4"/>
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="B11:C11"/>
     <mergeCell ref="B12:C12"/>
@@ -1058,6 +1084,14 @@
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="B9:C9"/>
     <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="A27:C27"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B4:C4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/assets/tests/testsHelper.xlsx
+++ b/assets/tests/testsHelper.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFB31D4E-86F3-4249-B4C7-979E542B2BEC}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFF57E92-6D56-432A-BA11-0AEF04234AEE}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -137,6 +137,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.00000000"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -274,7 +277,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -318,6 +321,27 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -327,28 +351,25 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -634,7 +655,7 @@
   <dimension ref="A1:J32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -652,10 +673,10 @@
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="23">
-        <v>46939.9</v>
-      </c>
-      <c r="C1" s="23"/>
+      <c r="B1" s="15">
+        <v>41476.6</v>
+      </c>
+      <c r="C1" s="15"/>
       <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
@@ -673,10 +694,10 @@
       <c r="A2" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="15">
-        <v>106.6714886</v>
-      </c>
-      <c r="C2" s="16"/>
+      <c r="B2" s="22">
+        <v>113.77811964</v>
+      </c>
+      <c r="C2" s="23"/>
       <c r="F2" s="2" t="s">
         <v>5</v>
       </c>
@@ -691,11 +712,11 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="24" t="s">
+      <c r="A3" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="B3" s="24"/>
-      <c r="C3" s="25"/>
+      <c r="B3" s="20"/>
+      <c r="C3" s="21"/>
       <c r="F3" s="4" t="s">
         <v>6</v>
       </c>
@@ -713,11 +734,11 @@
       <c r="A4" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="18">
+      <c r="B4" s="28">
         <f>B2*G1</f>
-        <v>5.3335744300000005</v>
-      </c>
-      <c r="C4" s="19"/>
+        <v>5.6889059820000005</v>
+      </c>
+      <c r="C4" s="29"/>
       <c r="F4" s="4" t="s">
         <v>7</v>
       </c>
@@ -729,11 +750,11 @@
       <c r="A5" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="18">
+      <c r="B5" s="28">
         <f>_xlfn.FLOOR.MATH(B4, J3)</f>
-        <v>5.3335744300000005</v>
-      </c>
-      <c r="C5" s="19"/>
+        <v>5.6889059800000004</v>
+      </c>
+      <c r="C5" s="29"/>
       <c r="F5" s="5" t="s">
         <v>27</v>
       </c>
@@ -745,11 +766,11 @@
       <c r="A6" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="18">
+      <c r="B6" s="28">
         <f>B5*G2</f>
-        <v>266.67872150000005</v>
-      </c>
-      <c r="C6" s="19"/>
+        <v>284.44529900000003</v>
+      </c>
+      <c r="C6" s="29"/>
       <c r="F6" s="5" t="s">
         <v>31</v>
       </c>
@@ -761,61 +782,61 @@
       <c r="A7" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="18">
+      <c r="B7" s="16">
         <f>B6/B1</f>
-        <v>5.6812801369410682E-3</v>
-      </c>
-      <c r="C7" s="19"/>
+        <v>6.8579704942063726E-3</v>
+      </c>
+      <c r="C7" s="17"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="20">
+      <c r="B8" s="18">
         <f>_xlfn.FLOOR.MATH(B7,J1)</f>
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="C8" s="21"/>
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="C8" s="19"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="18">
+      <c r="B9" s="28">
         <f>B8*B1</f>
-        <v>234.6995</v>
-      </c>
-      <c r="C9" s="19"/>
+        <v>248.8596</v>
+      </c>
+      <c r="C9" s="29"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="20">
+      <c r="B10" s="18">
         <f>MROUND(B9,J3)</f>
-        <v>234.6995</v>
-      </c>
-      <c r="C10" s="21"/>
+        <v>248.8596</v>
+      </c>
+      <c r="C10" s="19"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="18">
+      <c r="B11" s="28">
         <f>B10/G2</f>
-        <v>4.6939900000000003</v>
-      </c>
-      <c r="C11" s="19"/>
+        <v>4.9771919999999996</v>
+      </c>
+      <c r="C11" s="29"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="B12" s="20">
+      <c r="B12" s="18">
         <f>MROUND(B11,J3)</f>
-        <v>4.6939900000000003</v>
-      </c>
-      <c r="C12" s="21"/>
+        <v>4.9771920000000005</v>
+      </c>
+      <c r="C12" s="19"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="6"/>
@@ -831,10 +852,10 @@
         <v>20</v>
       </c>
       <c r="B14" s="14">
-        <v>47744.7</v>
+        <v>40825.1</v>
       </c>
       <c r="C14" s="14">
-        <v>47687.9</v>
+        <v>42137.5</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
@@ -843,11 +864,11 @@
       </c>
       <c r="B15" s="5">
         <f>B14*(1+G3)</f>
-        <v>47768.572349999995</v>
+        <v>40845.512549999999</v>
       </c>
       <c r="C15" s="5">
         <f>C14*(1-G3)</f>
-        <v>47664.056050000007</v>
+        <v>42116.431250000001</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
@@ -856,11 +877,11 @@
       </c>
       <c r="B16" s="7">
         <f>MROUND(B15,J2)</f>
-        <v>47768.600000000006</v>
+        <v>40845.5</v>
       </c>
       <c r="C16" s="7">
         <f>MROUND(C15,J2)</f>
-        <v>47664.100000000006</v>
+        <v>42116.4</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -869,11 +890,11 @@
       </c>
       <c r="B17" s="5">
         <f>B1*(1+G4)</f>
-        <v>47057.249749999995</v>
+        <v>41580.291499999999</v>
       </c>
       <c r="C17" s="5">
         <f>B1*(1-G4)</f>
-        <v>46822.550250000008</v>
+        <v>41372.908499999998</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -882,44 +903,44 @@
       </c>
       <c r="B18" s="7">
         <f>MROUND(B17,J2)</f>
-        <v>47057.200000000004</v>
+        <v>41580.300000000003</v>
       </c>
       <c r="C18" s="7">
         <f>MROUND(C17,J2)</f>
-        <v>46822.600000000006</v>
+        <v>41372.9</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="18"/>
-      <c r="B19" s="22"/>
-      <c r="C19" s="19"/>
+      <c r="A19" s="16"/>
+      <c r="B19" s="25"/>
+      <c r="C19" s="17"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B20" s="18">
+      <c r="B20" s="16">
         <f>MROUND(B10*G5,J3)</f>
-        <v>9.3879799999999999E-2</v>
-      </c>
-      <c r="C20" s="19"/>
+        <v>9.9543840000000008E-2</v>
+      </c>
+      <c r="C20" s="17"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="B21" s="20">
+      <c r="B21" s="26">
         <f>B2-B12-B20</f>
-        <v>101.88361880000001</v>
-      </c>
-      <c r="C21" s="21"/>
+        <v>108.7013838</v>
+      </c>
+      <c r="C21" s="27"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="17" t="s">
+      <c r="A22" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="B22" s="17"/>
-      <c r="C22" s="17"/>
+      <c r="B22" s="24"/>
+      <c r="C22" s="24"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="5"/>
@@ -938,7 +959,7 @@
         <v>47575.199999999997</v>
       </c>
       <c r="C24" s="14">
-        <v>45900</v>
+        <v>41380</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
@@ -951,7 +972,7 @@
       </c>
       <c r="C25" s="14">
         <f>C24*(1+G6)</f>
-        <v>46359</v>
+        <v>41793.800000000003</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
@@ -964,15 +985,15 @@
       </c>
       <c r="C26" s="7">
         <f>MROUND(C25,J2)</f>
-        <v>46359</v>
+        <v>41793.800000000003</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="17" t="s">
+      <c r="A27" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="B27" s="17"/>
-      <c r="C27" s="17"/>
+      <c r="B27" s="24"/>
+      <c r="C27" s="24"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="5"/>
@@ -993,88 +1014,93 @@
       <c r="A29" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="B29" s="5">
+      <c r="B29" s="30">
         <f>MROUND(B8*B16,J3)</f>
-        <v>238.84300000000002</v>
-      </c>
-      <c r="C29" s="5">
+        <v>245.07300000000001</v>
+      </c>
+      <c r="C29" s="30">
         <f>MROUND(B8*C26,J3)</f>
-        <v>231.79500000000002</v>
-      </c>
-      <c r="D29" s="5">
+        <v>250.7628</v>
+      </c>
+      <c r="D29" s="30">
         <f>MROUND(B8*C16,J3)</f>
-        <v>238.32050000000001</v>
-      </c>
-      <c r="E29" s="5">
+        <v>252.69839999999999</v>
+      </c>
+      <c r="E29" s="30">
         <f>MROUND(B8*C26,J3)</f>
-        <v>231.79500000000002</v>
+        <v>250.7628</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="B30" s="5">
+      <c r="B30" s="30">
         <f>MROUND(B29*G5,J3)</f>
-        <v>9.5537200000000003E-2</v>
-      </c>
-      <c r="C30" s="5">
+        <v>9.8029199999999997E-2</v>
+      </c>
+      <c r="C30" s="30">
         <f>MROUND(C29*G5,J3)</f>
-        <v>9.2718000000000009E-2</v>
-      </c>
-      <c r="D30" s="5">
+        <v>0.10030512</v>
+      </c>
+      <c r="D30" s="30">
         <f>MROUND(D29*G5,J3)</f>
-        <v>9.5328200000000002E-2</v>
-      </c>
-      <c r="E30" s="5">
+        <v>0.10107936000000001</v>
+      </c>
+      <c r="E30" s="30">
         <f>MROUND(E29*G5,J3)</f>
-        <v>9.2718000000000009E-2</v>
+        <v>0.10030512</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="B31" s="5">
+      <c r="B31" s="30">
         <f>B29-B10-B30</f>
-        <v>4.0479628000000174</v>
-      </c>
-      <c r="C31" s="5">
+        <v>-3.8846291999999929</v>
+      </c>
+      <c r="C31" s="30">
         <f>C29-B10-C30</f>
-        <v>-2.9972179999999846</v>
-      </c>
-      <c r="D31" s="5">
+        <v>1.8028948799999982</v>
+      </c>
+      <c r="D31" s="30">
         <f>B10-D29-D30</f>
-        <v>-3.7163282000000093</v>
-      </c>
-      <c r="E31" s="5">
+        <v>-3.9398793599999919</v>
+      </c>
+      <c r="E31" s="30">
         <f>B10-E29-E30</f>
-        <v>2.8117819999999845</v>
+        <v>-2.003505119999998</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B32" s="7">
+      <c r="B32" s="31">
         <f>B12+B21+B31</f>
-        <v>110.62557160000003</v>
-      </c>
-      <c r="C32" s="7">
+        <v>109.79394660000001</v>
+      </c>
+      <c r="C32" s="31">
         <f>B12+B21+C31</f>
-        <v>103.58039080000002</v>
-      </c>
-      <c r="D32" s="7">
+        <v>115.48147068</v>
+      </c>
+      <c r="D32" s="31">
         <f>B21+B12+D31</f>
-        <v>102.8612806</v>
-      </c>
-      <c r="E32" s="7">
+        <v>109.73869644000001</v>
+      </c>
+      <c r="E32" s="31">
         <f>B21+B12+E31</f>
-        <v>109.38939079999999</v>
+        <v>111.67507068</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="A27:C27"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="A19:C19"/>
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="B11:C11"/>
     <mergeCell ref="B12:C12"/>
@@ -1085,11 +1111,6 @@
     <mergeCell ref="B9:C9"/>
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="B2:C2"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="A27:C27"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="A19:C19"/>
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="B4:C4"/>
   </mergeCells>
